--- a/trajectory annotation/example output/tram_tracks.xlsx
+++ b/trajectory annotation/example output/tram_tracks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="D2" t="n">
-        <v>358</v>
+        <v>276</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1152030282027025</v>
+        <v>0.3012454838927516</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.4584574864171024</v>
+        <v>2.422099625245713</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D3" t="n">
-        <v>313</v>
+        <v>252</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1.421171580633253</v>
+        <v>-1.055784142470901</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.19619831547914</v>
+        <v>1.720297352579274</v>
       </c>
     </row>
     <row r="4">
@@ -527,22 +527,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="D4" t="n">
-        <v>290</v>
+        <v>228</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>2.905648695136426</v>
+        <v>-2.770116622881917</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.577009092314746</v>
+        <v>1.103256185818128</v>
       </c>
     </row>
     <row r="5">
@@ -552,22 +552,272 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>335</v>
+        <v>172</v>
       </c>
       <c r="D5" t="n">
-        <v>282</v>
+        <v>205</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>4.453016423345785</v>
+        <v>-4.854085526941594</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.567188092641552</v>
+        <v>0.413162834772887</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TramTrack</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>184</v>
+      </c>
+      <c r="D6" t="n">
+        <v>181</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-7.74544801920699</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.215954108146052</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TramTrack</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>190</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-10.62495020375288</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.6511718190256063</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TramTrack</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>191</v>
+      </c>
+      <c r="D8" t="n">
+        <v>151</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-13.05841248346709</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.8109760014056175</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TramTrack</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>52</v>
+      </c>
+      <c r="D9" t="n">
+        <v>276</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.02416219497409913</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.442090732799167</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TramTrack</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>80</v>
+      </c>
+      <c r="D10" t="n">
+        <v>249</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-1.573371759767729</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.883376072221109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TramTrack</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>107</v>
+      </c>
+      <c r="D11" t="n">
+        <v>227</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-3.16562154911886</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.138084354668137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TramTrack</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>132</v>
+      </c>
+      <c r="D12" t="n">
+        <v>200</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-5.731809439890184</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.367332053997913</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TramTrack</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>147</v>
+      </c>
+      <c r="D13" t="n">
+        <v>181</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-8.102494173343802</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.805791406981207</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TramTrack</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>155</v>
+      </c>
+      <c r="D14" t="n">
+        <v>166</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-10.47923942159498</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.487874618967014</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TramTrack</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>160</v>
+      </c>
+      <c r="D15" t="n">
+        <v>152</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-13.25645098843364</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.288773314195357</v>
       </c>
     </row>
   </sheetData>
